--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parksewon/Desktop/cording/생활코딩 부수기/conquer_egoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB0D7B3-977B-154B-AA57-727337E36E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5576ED-76F9-8543-B343-11F5BF984396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="4420" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
+    <workbookView xWindow="6040" yWindow="920" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
   </bookViews>
   <sheets>
     <sheet name="생활코딩" sheetId="1" r:id="rId1"/>
     <sheet name="모두의 코드" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="194">
   <si>
     <t>수강한 과목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -629,6 +629,10 @@
   </si>
   <si>
     <t>c++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +1028,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFCE93B-EEC5-274E-BC18-776E18377526}">
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1405,13 +1412,17 @@
       </c>
       <c r="J3" s="3">
         <f>COUNTA(H3:H165)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="19"/>
+      <c r="B4" s="25">
+        <v>44711</v>
+      </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="E4" s="20"/>
       <c r="G4" s="5" t="s">
         <v>7</v>
@@ -1666,7 +1677,9 @@
       <c r="G29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="10" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="19"/>
@@ -3040,7 +3053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AA47AB-074B-4542-BFF7-4683EA352C64}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
